--- a/biology/Zoologie/Cerata/Cerata.xlsx
+++ b/biology/Zoologie/Cerata/Cerata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cérates — appelé également cerata ou papilles dorsales — sont des structures anatomiques des mollusques opisthobranches. Ce sont des appendices ou expansions dorsaux ou latéraux de formes variées. L'origine étymologique est grecque : κέρας signifie « corne »[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cérates — appelé également cerata ou papilles dorsales — sont des structures anatomiques des mollusques opisthobranches. Ce sont des appendices ou expansions dorsaux ou latéraux de formes variées. L'origine étymologique est grecque : κέρας signifie « corne ». 
 Suivant les espèces, les cérates peuvent jouer un rôle à la fois respiratoire, digestif et défensif, en concentrant les cellules urticantes des animaux venimeux qu’elles consomment (principalement des cnidaires, notamment des hydraires). Les cérates peuvent être alignés régulièrement, former des touffes ou disposés de manière plus ou moins anarchique. 
 			Aeolidia papillosa (Aeolidiidae)
 			Dondice banyulensis (Facelinidae)
